--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - June 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - June 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="June 01" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="June 22" sheetId="16" r:id="rId16"/>
     <sheet name="June 23" sheetId="17" r:id="rId17"/>
     <sheet name="June 24" sheetId="18" r:id="rId18"/>
+    <sheet name="June 25" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'June 24'!$A$34:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'June 25'!$A$34:$F$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="112">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -625,7 +627,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -665,6 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,7 +731,16 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1056,22 +1068,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1094,7 +1106,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1110,7 +1122,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1136,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1150,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1164,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1168,7 +1180,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1194,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1208,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1238,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1242,7 +1254,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1268,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1272,7 +1284,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1298,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1312,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1314,7 +1326,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1330,7 +1342,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1376,7 +1388,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1392,7 +1404,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -1406,7 +1418,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1420,7 +1432,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1466,7 +1478,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1482,7 +1494,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -1497,22 +1509,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1535,7 +1547,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1551,7 +1563,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -1565,7 +1577,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1579,7 +1591,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -1593,7 +1605,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -1607,7 +1619,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -1621,7 +1633,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1635,7 +1647,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -1649,7 +1661,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -1677,7 +1689,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -1705,7 +1717,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -1719,7 +1731,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -1733,7 +1745,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -1747,7 +1759,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -1761,7 +1773,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -1775,7 +1787,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -1789,7 +1801,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -1864,22 +1876,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1902,7 +1914,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1918,7 +1930,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1944,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1958,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +1972,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1976,7 +1988,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +2002,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2004,7 +2016,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +2046,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2050,7 +2062,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2064,7 +2076,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2080,7 +2092,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2106,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2108,7 +2120,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2122,7 +2134,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2138,7 +2150,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2196,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2200,7 +2212,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -2214,7 +2226,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -2228,7 +2240,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -2274,7 +2286,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2290,7 +2302,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -2305,22 +2317,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2343,7 +2355,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2359,7 +2371,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -2373,7 +2385,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2387,7 +2399,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -2401,7 +2413,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -2429,7 +2441,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -2443,7 +2455,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -2457,7 +2469,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -2471,7 +2483,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -2485,7 +2497,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -2499,7 +2511,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2513,7 +2525,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -2527,7 +2539,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -2541,7 +2553,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -2555,7 +2567,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -2569,7 +2581,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -2583,7 +2595,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -2597,7 +2609,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -2672,22 +2684,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2710,7 +2722,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2726,7 +2738,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +2752,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +2766,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2768,7 +2780,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2784,7 +2796,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2798,7 +2810,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2812,7 +2824,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2854,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2858,7 +2870,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2884,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2888,7 +2900,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2902,7 +2914,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2916,7 +2928,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +2942,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2946,7 +2958,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2992,7 +3004,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3008,7 +3020,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3022,7 +3034,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -3036,7 +3048,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -3082,7 +3094,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3098,7 +3110,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -3113,22 +3125,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3151,7 +3163,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3167,7 +3179,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -3181,7 +3193,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -3195,7 +3207,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -3209,7 +3221,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -3223,7 +3235,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -3237,7 +3249,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -3251,7 +3263,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -3265,7 +3277,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -3279,7 +3291,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -3293,7 +3305,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3307,7 +3319,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3321,7 +3333,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -3335,7 +3347,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3349,7 +3361,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3363,7 +3375,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3377,7 +3389,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -3391,7 +3403,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -3405,7 +3417,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -3480,22 +3492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3518,7 +3530,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3534,7 +3546,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3560,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3574,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3576,7 +3588,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3592,7 +3604,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3606,7 +3618,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3620,7 +3632,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3666,7 +3678,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3680,7 +3692,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3696,7 +3708,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3710,7 +3722,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -3724,7 +3736,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -3738,7 +3750,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3754,7 +3766,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3800,7 +3812,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3816,7 +3828,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3830,7 +3842,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -3844,7 +3856,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -3890,7 +3902,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3906,7 +3918,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -3921,22 +3933,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3959,7 +3971,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3975,7 +3987,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -3989,7 +4001,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4003,7 +4015,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -4017,7 +4029,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -4031,7 +4043,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +4057,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -4059,7 +4071,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -4073,7 +4085,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4099,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -4101,7 +4113,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -4115,7 +4127,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -4129,7 +4141,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -4143,7 +4155,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4157,7 +4169,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -4171,7 +4183,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -4185,7 +4197,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -4199,7 +4211,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -4213,7 +4225,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -4288,22 +4300,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4326,7 +4338,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4342,7 +4354,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4356,7 +4368,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4370,7 +4382,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4384,7 +4396,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4400,7 +4412,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4414,7 +4426,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -4428,7 +4440,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -4458,7 +4470,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4474,7 +4486,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -4488,7 +4500,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4504,7 +4516,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4518,7 +4530,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -4532,7 +4544,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -4546,7 +4558,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4562,7 +4574,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -4608,7 +4620,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4624,7 +4636,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -4638,7 +4650,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -4652,7 +4664,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -4698,7 +4710,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4714,7 +4726,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4729,22 +4741,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -4767,7 +4779,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4783,7 +4795,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -4797,7 +4809,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4811,7 +4823,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -4825,7 +4837,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -4839,7 +4851,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -4853,7 +4865,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -4867,7 +4879,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -4881,7 +4893,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -4895,7 +4907,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -4909,7 +4921,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -4923,7 +4935,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -4937,7 +4949,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -4951,7 +4963,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4965,7 +4977,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -4979,7 +4991,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -4993,7 +5005,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -5007,7 +5019,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -5021,7 +5033,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -5096,22 +5108,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5134,7 +5146,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5150,7 +5162,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5164,7 +5176,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5178,7 +5190,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5192,7 +5204,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5208,7 +5220,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -5222,7 +5234,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -5236,7 +5248,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -5266,7 +5278,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5282,7 +5294,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -5296,7 +5308,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5312,7 +5324,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -5326,7 +5338,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5340,7 +5352,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -5354,7 +5366,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5370,7 +5382,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -5416,7 +5428,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5432,7 +5444,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -5446,7 +5458,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -5460,7 +5472,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -5506,7 +5518,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5522,7 +5534,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -5537,22 +5549,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5575,7 +5587,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5591,7 +5603,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -5605,7 +5617,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5619,7 +5631,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -5633,7 +5645,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -5647,7 +5659,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -5661,7 +5673,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -5675,7 +5687,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -5689,7 +5701,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -5703,7 +5715,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -5717,7 +5729,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -5731,7 +5743,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -5745,7 +5757,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -5759,7 +5771,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -5773,7 +5785,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -5787,7 +5799,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -5801,7 +5813,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -5815,7 +5827,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -5829,7 +5841,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -5904,22 +5916,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5942,7 +5954,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5958,7 +5970,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5972,7 +5984,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5986,7 +5998,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6000,7 +6012,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6016,7 +6028,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -6030,7 +6042,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6044,7 +6056,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -6074,7 +6086,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6090,7 +6102,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6104,7 +6116,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6120,7 +6132,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -6134,7 +6146,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -6148,7 +6160,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -6162,7 +6174,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6178,7 +6190,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -6224,7 +6236,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6240,7 +6252,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -6254,7 +6266,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -6268,7 +6280,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -6314,7 +6326,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6330,7 +6342,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -6345,22 +6357,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -6383,7 +6395,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -6399,7 +6411,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -6413,7 +6425,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -6427,7 +6439,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -6441,7 +6453,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -6455,7 +6467,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -6469,7 +6481,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -6483,7 +6495,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -6497,7 +6509,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -6511,7 +6523,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -6525,7 +6537,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -6539,7 +6551,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -6553,7 +6565,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -6567,7 +6579,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -6581,7 +6593,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -6595,7 +6607,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -6609,7 +6621,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -6623,7 +6635,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -6637,7 +6649,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -6712,22 +6724,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6750,7 +6762,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6766,7 +6778,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6792,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6794,7 +6806,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6808,7 +6820,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6824,7 +6836,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -6838,7 +6850,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6852,7 +6864,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -6882,7 +6894,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6898,7 +6910,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6912,7 +6924,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6928,7 +6940,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -6942,7 +6954,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -6956,7 +6968,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -6970,7 +6982,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6986,7 +6998,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -7032,7 +7044,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7048,7 +7060,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -7062,7 +7074,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -7076,7 +7088,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -7122,7 +7134,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7138,7 +7150,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -7153,22 +7165,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -7191,7 +7203,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -7207,7 +7219,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -7221,7 +7233,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -7235,7 +7247,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -7249,7 +7261,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -7263,7 +7275,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -7277,7 +7289,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -7291,7 +7303,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -7305,7 +7317,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -7319,7 +7331,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -7333,7 +7345,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -7347,7 +7359,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -7361,7 +7373,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -7375,7 +7387,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -7389,7 +7401,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -7403,7 +7415,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -7417,7 +7429,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -7431,7 +7443,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -7445,7 +7457,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -7520,22 +7532,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7558,7 +7570,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7574,7 +7586,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7588,7 +7600,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7602,7 +7614,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -7616,7 +7628,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7632,7 +7644,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -7646,7 +7658,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -7660,7 +7672,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -7690,7 +7702,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7706,7 +7718,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -7720,7 +7732,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7736,7 +7748,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -7750,7 +7762,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -7764,7 +7776,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -7778,7 +7790,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7794,7 +7806,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -7840,7 +7852,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7856,7 +7868,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -7870,7 +7882,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -7884,7 +7896,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -7930,7 +7942,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7946,7 +7958,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -7961,22 +7973,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -7999,7 +8011,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -8015,7 +8027,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -8029,7 +8041,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -8043,7 +8055,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -8057,7 +8069,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -8071,7 +8083,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -8085,7 +8097,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -8099,7 +8111,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -8113,7 +8125,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -8127,7 +8139,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -8141,7 +8153,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -8155,7 +8167,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -8169,7 +8181,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -8183,7 +8195,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -8197,7 +8209,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -8211,7 +8223,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -8225,7 +8237,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -8239,7 +8251,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -8253,7 +8265,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -8312,8 +8324,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8328,22 +8340,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8366,7 +8378,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8382,7 +8394,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8396,7 +8408,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8410,7 +8422,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -8424,7 +8436,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8440,7 +8452,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -8454,7 +8466,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8480,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -8498,7 +8510,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8514,7 +8526,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -8528,7 +8540,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8544,7 +8556,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -8558,7 +8570,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -8572,7 +8584,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -8586,7 +8598,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8602,7 +8614,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -8648,7 +8660,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8664,7 +8676,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -8678,7 +8690,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -8692,7 +8704,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -8738,7 +8750,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8754,7 +8766,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -8769,22 +8781,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -8807,7 +8819,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -8823,7 +8835,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -8837,7 +8849,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -8851,7 +8863,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -8865,7 +8877,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -8879,7 +8891,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -8893,7 +8905,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -8907,7 +8919,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -8921,7 +8933,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -8935,7 +8947,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -8949,7 +8961,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -8963,7 +8975,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -8977,7 +8989,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -8991,7 +9003,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -9005,7 +9017,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -9019,7 +9031,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -9033,7 +9045,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -9047,7 +9059,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -9061,7 +9073,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9106,6 +9118,813 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="A35:A53"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="43"/>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="13"/>
+      <c r="F56" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="14"/>
+      <c r="F57" s="34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="15"/>
+      <c r="F58" s="34" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9146,22 +9965,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9184,7 +10003,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9200,7 +10019,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -9214,7 +10033,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -9228,7 +10047,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -9242,7 +10061,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9258,7 +10077,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -9272,7 +10091,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -9286,7 +10105,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -9316,7 +10135,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -9332,7 +10151,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -9346,7 +10165,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -9362,7 +10181,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -9376,7 +10195,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -9390,7 +10209,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -9404,7 +10223,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -9420,7 +10239,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -9466,7 +10285,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -9482,7 +10301,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -9496,7 +10315,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -9510,7 +10329,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -9556,7 +10375,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -9572,7 +10391,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -9587,22 +10406,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -9625,7 +10444,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -9641,7 +10460,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -9655,7 +10474,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -9669,7 +10488,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -9683,7 +10502,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -9697,7 +10516,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -9711,7 +10530,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -9725,7 +10544,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -9739,7 +10558,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -9753,7 +10572,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -9767,7 +10586,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -9781,7 +10600,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -9795,7 +10614,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -9809,7 +10628,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -9823,7 +10642,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -9837,7 +10656,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -9851,7 +10670,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -9865,7 +10684,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -9879,7 +10698,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9954,22 +10773,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9992,7 +10811,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10008,7 +10827,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -10022,7 +10841,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -10036,7 +10855,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -10050,7 +10869,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10066,7 +10885,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10080,7 +10899,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10094,7 +10913,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10124,7 +10943,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10140,7 +10959,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -10154,7 +10973,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10170,7 +10989,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -10184,7 +11003,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -10198,7 +11017,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -10212,7 +11031,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -10228,7 +11047,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -10274,7 +11093,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -10290,7 +11109,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -10304,7 +11123,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -10318,7 +11137,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -10364,7 +11183,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -10380,7 +11199,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -10395,22 +11214,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -10433,7 +11252,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -10449,7 +11268,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -10463,7 +11282,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -10477,7 +11296,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -10491,7 +11310,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -10505,7 +11324,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -10519,7 +11338,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -10533,7 +11352,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -10547,7 +11366,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -10561,7 +11380,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -10575,7 +11394,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -10589,7 +11408,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -10603,7 +11422,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -10617,7 +11436,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -10631,7 +11450,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -10645,7 +11464,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -10659,7 +11478,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -10673,7 +11492,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -10687,7 +11506,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -10762,22 +11581,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10800,7 +11619,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10816,7 +11635,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -10830,7 +11649,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -10844,7 +11663,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -10858,7 +11677,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10874,7 +11693,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10888,7 +11707,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10902,7 +11721,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10932,7 +11751,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10948,7 +11767,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -10962,7 +11781,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10978,7 +11797,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -10992,7 +11811,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -11006,7 +11825,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -11020,7 +11839,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -11036,7 +11855,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -11082,7 +11901,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -11098,7 +11917,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -11112,7 +11931,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -11126,7 +11945,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -11172,7 +11991,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -11188,7 +12007,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -11203,22 +12022,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -11241,7 +12060,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -11257,7 +12076,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -11271,7 +12090,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -11285,7 +12104,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -11299,7 +12118,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -11313,7 +12132,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -11327,7 +12146,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -11341,7 +12160,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -11355,7 +12174,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -11369,7 +12188,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -11383,7 +12202,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -11397,7 +12216,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -11411,7 +12230,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -11425,7 +12244,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -11439,7 +12258,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -11453,7 +12272,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -11467,7 +12286,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -11481,7 +12300,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -11495,7 +12314,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -11570,22 +12389,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11608,7 +12427,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -11624,7 +12443,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -11638,7 +12457,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11652,7 +12471,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -11666,7 +12485,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -11682,7 +12501,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -11696,7 +12515,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -11710,7 +12529,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -11740,7 +12559,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -11756,7 +12575,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -11770,7 +12589,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -11786,7 +12605,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -11800,7 +12619,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -11814,7 +12633,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -11828,7 +12647,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -11844,7 +12663,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -11890,7 +12709,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -11906,7 +12725,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -11920,7 +12739,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -11934,7 +12753,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -11980,7 +12799,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -11996,7 +12815,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -12011,22 +12830,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -12049,7 +12868,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -12065,7 +12884,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -12079,7 +12898,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -12093,7 +12912,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -12107,7 +12926,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -12121,7 +12940,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -12135,7 +12954,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -12149,7 +12968,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -12163,7 +12982,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -12177,7 +12996,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -12191,7 +13010,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -12205,7 +13024,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -12219,7 +13038,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -12233,7 +13052,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -12247,7 +13066,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -12261,7 +13080,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -12275,7 +13094,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -12289,7 +13108,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -12303,7 +13122,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -12378,22 +13197,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -12416,7 +13235,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -12432,7 +13251,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -12446,7 +13265,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12460,7 +13279,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -12474,7 +13293,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12490,7 +13309,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -12504,7 +13323,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -12518,7 +13337,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -12548,7 +13367,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -12564,7 +13383,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -12578,7 +13397,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -12594,7 +13413,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -12608,7 +13427,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -12622,7 +13441,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -12636,7 +13455,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -12652,7 +13471,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -12698,7 +13517,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -12714,7 +13533,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -12728,7 +13547,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -12742,7 +13561,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -12788,7 +13607,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -12804,7 +13623,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -12819,22 +13638,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -12857,7 +13676,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -12873,7 +13692,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -12887,7 +13706,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -12901,7 +13720,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -12915,7 +13734,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -12929,7 +13748,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -12943,7 +13762,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -12957,7 +13776,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -12971,7 +13790,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -12985,7 +13804,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -12999,7 +13818,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -13013,7 +13832,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -13027,7 +13846,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -13041,7 +13860,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -13055,7 +13874,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -13069,7 +13888,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -13083,7 +13902,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -13097,7 +13916,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -13111,7 +13930,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -13186,22 +14005,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13224,7 +14043,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -13240,7 +14059,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -13254,7 +14073,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13268,7 +14087,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -13282,7 +14101,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -13298,7 +14117,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -13312,7 +14131,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -13326,7 +14145,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -13356,7 +14175,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -13372,7 +14191,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -13386,7 +14205,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -13402,7 +14221,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -13416,7 +14235,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -13430,7 +14249,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -13444,7 +14263,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -13460,7 +14279,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -13506,7 +14325,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -13522,7 +14341,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -13536,7 +14355,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -13550,7 +14369,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -13596,7 +14415,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -13612,7 +14431,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -13627,22 +14446,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -13665,7 +14484,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -13681,7 +14500,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -13695,7 +14514,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -13709,7 +14528,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -13723,7 +14542,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -13737,7 +14556,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -13751,7 +14570,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -13765,7 +14584,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -13779,7 +14598,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -13793,7 +14612,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -13807,7 +14626,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -13821,7 +14640,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -13835,7 +14654,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -13849,7 +14668,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -13863,7 +14682,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -13877,7 +14696,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -13891,7 +14710,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -13905,7 +14724,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -13919,7 +14738,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -13994,22 +14813,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14032,7 +14851,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -14048,7 +14867,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -14062,7 +14881,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -14076,7 +14895,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -14090,7 +14909,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -14106,7 +14925,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -14120,7 +14939,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -14134,7 +14953,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -14164,7 +14983,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -14180,7 +14999,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -14194,7 +15013,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -14210,7 +15029,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -14224,7 +15043,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -14238,7 +15057,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -14252,7 +15071,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -14268,7 +15087,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -14314,7 +15133,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -14330,7 +15149,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -14344,7 +15163,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -14358,7 +15177,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -14404,7 +15223,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -14420,7 +15239,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -14435,22 +15254,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -14473,7 +15292,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -14489,7 +15308,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -14503,7 +15322,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -14517,7 +15336,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -14531,7 +15350,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -14545,7 +15364,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -14559,7 +15378,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -14573,7 +15392,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -14587,7 +15406,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -14601,7 +15420,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -14615,7 +15434,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -14629,7 +15448,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -14643,7 +15462,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -14657,7 +15476,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -14671,7 +15490,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -14685,7 +15504,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -14699,7 +15518,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -14713,7 +15532,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -14727,7 +15546,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -14802,22 +15621,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14840,7 +15659,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -14856,7 +15675,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -14870,7 +15689,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -14884,7 +15703,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -14898,7 +15717,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -14914,7 +15733,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -14928,7 +15747,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -14942,7 +15761,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -14972,7 +15791,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -14988,7 +15807,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -15002,7 +15821,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -15018,7 +15837,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -15032,7 +15851,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -15046,7 +15865,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -15060,7 +15879,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -15076,7 +15895,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -15122,7 +15941,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -15138,7 +15957,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -15152,7 +15971,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -15166,7 +15985,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -15212,7 +16031,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -15228,7 +16047,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -15243,22 +16062,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -15281,7 +16100,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -15297,7 +16116,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -15311,7 +16130,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -15325,7 +16144,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -15339,7 +16158,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -15353,7 +16172,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -15367,7 +16186,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -15381,7 +16200,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -15395,7 +16214,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -15409,7 +16228,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -15423,7 +16242,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -15437,7 +16256,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -15451,7 +16270,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -15465,7 +16284,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -15479,7 +16298,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -15493,7 +16312,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -15507,7 +16326,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -15521,7 +16340,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -15535,7 +16354,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>

--- a/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - June 2020.xlsx
+++ b/Daily Health Checkup/EQUIP and EWS oozie jobs status dashboard report - June 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="June 01" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,12 @@
     <sheet name="June 23" sheetId="17" r:id="rId17"/>
     <sheet name="June 24" sheetId="18" r:id="rId18"/>
     <sheet name="June 25" sheetId="19" r:id="rId19"/>
+    <sheet name="June 26" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'June 24'!$A$34:$F$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'June 25'!$A$34:$F$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'June 26'!$A$34:$F$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="112">
   <si>
     <t>Daily Equip Oozie jobs status Dashboard Report</t>
   </si>
@@ -627,7 +629,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
@@ -667,6 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -731,16 +734,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1068,22 +1062,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1106,7 +1100,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1122,7 +1116,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1130,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1144,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1158,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1180,7 +1174,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1188,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1202,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1232,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1254,7 +1248,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1262,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1284,7 +1278,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1298,7 +1292,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1312,7 +1306,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1320,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1342,7 +1336,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1388,7 +1382,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1404,7 +1398,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -1418,7 +1412,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1426,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -1478,7 +1472,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1494,7 +1488,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -1509,22 +1503,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1547,7 +1541,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1563,7 +1557,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -1577,7 +1571,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1591,7 +1585,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -1605,7 +1599,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -1619,7 +1613,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -1633,7 +1627,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1647,7 +1641,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -1661,7 +1655,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -1675,7 +1669,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -1689,7 +1683,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -1703,7 +1697,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -1717,7 +1711,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -1731,7 +1725,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -1745,7 +1739,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -1759,7 +1753,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -1773,7 +1767,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -1787,7 +1781,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -1801,7 +1795,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -1876,22 +1870,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1914,7 +1908,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1930,7 +1924,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +1938,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1958,7 +1952,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1966,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1988,7 +1982,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2002,7 +1996,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2010,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2040,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2062,7 +2056,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2076,7 +2070,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2092,7 +2086,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2106,7 +2100,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2120,7 +2114,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2134,7 +2128,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2150,7 +2144,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2190,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2212,7 +2206,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -2226,7 +2220,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -2240,7 +2234,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -2286,7 +2280,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2302,7 +2296,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -2317,22 +2311,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2355,7 +2349,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2371,7 +2365,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -2385,7 +2379,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2399,7 +2393,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -2413,7 +2407,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -2427,7 +2421,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2435,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -2455,7 +2449,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -2469,7 +2463,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -2483,7 +2477,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -2497,7 +2491,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -2511,7 +2505,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2525,7 +2519,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -2539,7 +2533,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -2553,7 +2547,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -2567,7 +2561,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -2581,7 +2575,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -2595,7 +2589,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -2609,7 +2603,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -2684,22 +2678,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2722,7 +2716,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2738,7 +2732,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2746,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2760,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2780,7 +2774,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2796,7 +2790,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2804,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2824,7 +2818,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2854,7 +2848,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2870,7 +2864,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2884,7 +2878,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2900,7 +2894,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2914,7 +2908,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +2922,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2936,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2958,7 +2952,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3004,7 +2998,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3020,7 +3014,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3034,7 +3028,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -3048,7 +3042,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -3094,7 +3088,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3110,7 +3104,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -3125,22 +3119,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3163,7 +3157,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3179,7 +3173,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -3193,7 +3187,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -3207,7 +3201,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -3221,7 +3215,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -3235,7 +3229,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -3249,7 +3243,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -3263,7 +3257,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -3277,7 +3271,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -3291,7 +3285,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -3305,7 +3299,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3319,7 +3313,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3333,7 +3327,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -3347,7 +3341,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -3361,7 +3355,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -3375,7 +3369,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -3389,7 +3383,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -3403,7 +3397,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -3417,7 +3411,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -3492,22 +3486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3530,7 +3524,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3546,7 +3540,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3560,7 +3554,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3574,7 +3568,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3588,7 +3582,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3604,7 +3598,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -3618,7 +3612,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3626,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3662,7 +3656,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3678,7 +3672,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3692,7 +3686,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3708,7 +3702,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3722,7 +3716,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3730,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -3750,7 +3744,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3766,7 +3760,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -3812,7 +3806,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3828,7 +3822,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -3842,7 +3836,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -3856,7 +3850,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -3902,7 +3896,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3918,7 +3912,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -3933,22 +3927,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3971,7 +3965,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3987,7 +3981,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -4001,7 +3995,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4015,7 +4009,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -4029,7 +4023,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -4043,7 +4037,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -4057,7 +4051,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -4071,7 +4065,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -4085,7 +4079,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -4099,7 +4093,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -4113,7 +4107,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -4127,7 +4121,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -4141,7 +4135,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -4155,7 +4149,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4169,7 +4163,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -4183,7 +4177,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -4197,7 +4191,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -4211,7 +4205,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -4225,7 +4219,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -4300,22 +4294,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4338,7 +4332,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4354,7 +4348,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4368,7 +4362,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4382,7 +4376,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4396,7 +4390,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4412,7 +4406,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4426,7 +4420,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -4440,7 +4434,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -4470,7 +4464,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4486,7 +4480,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -4500,7 +4494,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4516,7 +4510,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4530,7 +4524,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -4544,7 +4538,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -4558,7 +4552,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4574,7 +4568,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -4620,7 +4614,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4636,7 +4630,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -4650,7 +4644,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -4664,7 +4658,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -4710,7 +4704,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4726,7 +4720,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4741,22 +4735,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -4779,7 +4773,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4795,7 +4789,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -4809,7 +4803,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4823,7 +4817,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -4837,7 +4831,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -4851,7 +4845,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -4865,7 +4859,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -4879,7 +4873,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -4893,7 +4887,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -4907,7 +4901,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -4921,7 +4915,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -4935,7 +4929,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -4949,7 +4943,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -4963,7 +4957,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4977,7 +4971,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -4991,7 +4985,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -5005,7 +4999,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -5019,7 +5013,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -5033,7 +5027,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -5108,22 +5102,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5146,7 +5140,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5162,7 +5156,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5176,7 +5170,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5190,7 +5184,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5204,7 +5198,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5220,7 +5214,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -5234,7 +5228,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -5248,7 +5242,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -5278,7 +5272,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5294,7 +5288,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -5308,7 +5302,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5324,7 +5318,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -5338,7 +5332,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -5352,7 +5346,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -5366,7 +5360,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5382,7 +5376,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -5428,7 +5422,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5444,7 +5438,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -5458,7 +5452,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -5472,7 +5466,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -5518,7 +5512,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5534,7 +5528,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -5549,22 +5543,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -5587,7 +5581,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5603,7 +5597,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -5617,7 +5611,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -5631,7 +5625,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -5645,7 +5639,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -5659,7 +5653,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -5673,7 +5667,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -5687,7 +5681,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -5701,7 +5695,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -5715,7 +5709,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -5729,7 +5723,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -5743,7 +5737,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -5757,7 +5751,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -5771,7 +5765,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -5785,7 +5779,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -5799,7 +5793,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -5813,7 +5807,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -5827,7 +5821,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -5841,7 +5835,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -5916,22 +5910,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5954,7 +5948,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5970,7 +5964,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -5984,7 +5978,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +5992,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6012,7 +6006,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6028,7 +6022,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -6042,7 +6036,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6056,7 +6050,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -6086,7 +6080,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6102,7 +6096,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6116,7 +6110,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6132,7 +6126,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -6146,7 +6140,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -6160,7 +6154,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -6174,7 +6168,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6190,7 +6184,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -6236,7 +6230,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6252,7 +6246,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -6266,7 +6260,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -6280,7 +6274,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -6326,7 +6320,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6342,7 +6336,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -6357,22 +6351,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -6395,7 +6389,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -6411,7 +6405,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -6425,7 +6419,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -6439,7 +6433,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -6453,7 +6447,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -6467,7 +6461,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -6481,7 +6475,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -6495,7 +6489,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -6509,7 +6503,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -6523,7 +6517,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -6537,7 +6531,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -6551,7 +6545,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -6565,7 +6559,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -6579,7 +6573,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -6593,7 +6587,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -6607,7 +6601,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -6621,7 +6615,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -6635,7 +6629,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -6649,7 +6643,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -6724,22 +6718,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6762,7 +6756,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6778,7 +6772,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6792,7 +6786,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6806,7 +6800,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6820,7 +6814,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6836,7 +6830,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -6850,7 +6844,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -6864,7 +6858,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -6894,7 +6888,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6910,7 +6904,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -6924,7 +6918,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6940,7 +6934,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -6954,7 +6948,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -6968,7 +6962,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -6982,7 +6976,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6998,7 +6992,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -7044,7 +7038,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7060,7 +7054,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -7074,7 +7068,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -7088,7 +7082,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -7134,7 +7128,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7150,7 +7144,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -7165,22 +7159,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -7203,7 +7197,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -7219,7 +7213,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -7233,7 +7227,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -7247,7 +7241,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -7261,7 +7255,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7269,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -7289,7 +7283,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -7303,7 +7297,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -7317,7 +7311,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -7331,7 +7325,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -7345,7 +7339,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -7359,7 +7353,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -7373,7 +7367,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -7387,7 +7381,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -7401,7 +7395,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -7415,7 +7409,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -7429,7 +7423,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -7443,7 +7437,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -7457,7 +7451,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -7532,22 +7526,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7570,7 +7564,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7586,7 +7580,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +7594,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7614,7 +7608,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +7622,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7644,7 +7638,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -7658,7 +7652,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -7672,7 +7666,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -7702,7 +7696,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7718,7 +7712,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -7732,7 +7726,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7748,7 +7742,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -7762,7 +7756,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -7776,7 +7770,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -7790,7 +7784,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7806,7 +7800,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -7852,7 +7846,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7868,7 +7862,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -7882,7 +7876,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -7896,7 +7890,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -7942,7 +7936,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7958,7 +7952,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -7973,22 +7967,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -8011,7 +8005,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -8027,7 +8021,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -8041,7 +8035,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -8055,7 +8049,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -8069,7 +8063,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -8083,7 +8077,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -8097,7 +8091,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -8111,7 +8105,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -8125,7 +8119,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -8139,7 +8133,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -8153,7 +8147,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -8167,7 +8161,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -8181,7 +8175,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -8195,7 +8189,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -8209,7 +8203,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -8223,7 +8217,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -8237,7 +8231,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -8251,7 +8245,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -8265,7 +8259,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -8340,22 +8334,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8378,7 +8372,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8394,7 +8388,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8408,7 +8402,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -8422,7 +8416,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8430,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8452,7 +8446,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -8466,7 +8460,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -8480,7 +8474,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -8510,7 +8504,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8526,7 +8520,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -8540,7 +8534,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8556,7 +8550,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -8570,7 +8564,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -8584,7 +8578,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -8598,7 +8592,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8614,7 +8608,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -8660,7 +8654,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8676,7 +8670,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -8690,7 +8684,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -8704,7 +8698,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -8750,7 +8744,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8766,7 +8760,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -8781,22 +8775,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -8819,7 +8813,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -8835,7 +8829,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -8849,7 +8843,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -8863,7 +8857,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -8877,7 +8871,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -8891,7 +8885,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -8905,7 +8899,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -8919,7 +8913,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -8933,7 +8927,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -8947,7 +8941,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -8961,7 +8955,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -8975,7 +8969,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -8989,7 +8983,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -9003,7 +8997,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -9017,7 +9011,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -9031,7 +9025,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -9045,7 +9039,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -9059,7 +9053,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -9073,7 +9067,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9141,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -9157,22 +9151,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9195,7 +9189,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9211,7 +9205,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -9225,7 +9219,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -9239,7 +9233,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -9253,7 +9247,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9269,7 +9263,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -9283,7 +9277,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -9297,7 +9291,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -9327,7 +9321,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -9343,7 +9337,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -9357,7 +9351,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -9373,7 +9367,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -9387,7 +9381,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -9401,7 +9395,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -9415,7 +9409,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -9431,7 +9425,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -9477,7 +9471,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -9493,7 +9487,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -9507,7 +9501,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -9521,7 +9515,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -9567,7 +9561,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -9583,7 +9577,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -9598,22 +9592,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -9636,7 +9630,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -9652,7 +9646,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -9666,7 +9660,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -9680,7 +9674,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -9694,7 +9688,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -9708,7 +9702,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -9722,7 +9716,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -9736,7 +9730,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -9750,7 +9744,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -9764,7 +9758,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -9778,7 +9772,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -9792,7 +9786,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -9806,7 +9800,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -9820,7 +9814,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -9834,7 +9828,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -9848,7 +9842,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -9862,7 +9856,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -9876,7 +9870,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -9890,7 +9884,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -9965,22 +9959,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10003,7 +9997,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10019,7 +10013,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -10033,7 +10027,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -10047,7 +10041,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -10061,7 +10055,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10077,7 +10071,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10091,7 +10085,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10105,7 +10099,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10135,7 +10129,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10151,7 +10145,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -10165,7 +10159,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10181,7 +10175,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -10195,7 +10189,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -10209,7 +10203,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -10223,7 +10217,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -10239,7 +10233,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -10285,7 +10279,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -10301,7 +10295,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -10315,7 +10309,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -10329,7 +10323,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -10375,7 +10369,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -10391,7 +10385,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -10406,22 +10400,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -10444,7 +10438,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -10460,7 +10454,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -10474,7 +10468,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -10488,7 +10482,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -10502,7 +10496,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -10516,7 +10510,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -10530,7 +10524,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -10544,7 +10538,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -10558,7 +10552,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -10572,7 +10566,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -10586,7 +10580,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -10600,7 +10594,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -10614,7 +10608,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -10628,7 +10622,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -10642,7 +10636,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -10656,7 +10650,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -10670,7 +10664,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -10684,7 +10678,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -10698,7 +10692,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -10731,6 +10725,813 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="15"/>
       <c r="F58" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="A35:A53"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="13"/>
+      <c r="F56" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="14"/>
+      <c r="F57" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="15"/>
+      <c r="F58" s="35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10773,22 +11574,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10811,7 +11612,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10827,7 +11628,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -10841,7 +11642,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -10855,7 +11656,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -10869,7 +11670,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10885,7 +11686,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -10899,7 +11700,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -10913,7 +11714,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10943,7 +11744,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10959,7 +11760,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -10973,7 +11774,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10989,7 +11790,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -11003,7 +11804,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -11017,7 +11818,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -11031,7 +11832,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -11047,7 +11848,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -11093,7 +11894,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -11109,7 +11910,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -11123,7 +11924,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -11137,7 +11938,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -11183,7 +11984,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -11199,7 +12000,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -11214,22 +12015,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -11252,7 +12053,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -11268,7 +12069,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -11282,7 +12083,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -11296,7 +12097,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -11310,7 +12111,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -11324,7 +12125,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +12139,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -11352,7 +12153,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -11366,7 +12167,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -11380,7 +12181,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -11394,7 +12195,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -11408,7 +12209,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -11422,7 +12223,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -11436,7 +12237,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -11450,7 +12251,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -11464,7 +12265,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -11478,7 +12279,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -11492,7 +12293,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -11506,7 +12307,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -11581,22 +12382,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11619,7 +12420,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -11635,7 +12436,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -11649,7 +12450,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -11663,7 +12464,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -11677,7 +12478,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -11693,7 +12494,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -11707,7 +12508,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -11721,7 +12522,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -11751,7 +12552,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -11767,7 +12568,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -11781,7 +12582,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -11797,7 +12598,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -11811,7 +12612,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -11825,7 +12626,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -11839,7 +12640,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -11855,7 +12656,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -11901,7 +12702,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -11917,7 +12718,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -11931,7 +12732,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -11945,7 +12746,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -11991,7 +12792,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -12007,7 +12808,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -12022,22 +12823,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -12060,7 +12861,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -12076,7 +12877,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -12090,7 +12891,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -12104,7 +12905,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -12118,7 +12919,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -12132,7 +12933,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -12146,7 +12947,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -12160,7 +12961,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -12174,7 +12975,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -12188,7 +12989,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -12202,7 +13003,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -12216,7 +13017,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -12230,7 +13031,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -12244,7 +13045,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -12258,7 +13059,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -12272,7 +13073,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -12286,7 +13087,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -12300,7 +13101,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -12314,7 +13115,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -12389,22 +13190,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -12427,7 +13228,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -12443,7 +13244,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -12457,7 +13258,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -12471,7 +13272,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -12485,7 +13286,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12501,7 +13302,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -12515,7 +13316,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -12529,7 +13330,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -12559,7 +13360,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -12575,7 +13376,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -12589,7 +13390,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -12605,7 +13406,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -12619,7 +13420,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -12633,7 +13434,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -12647,7 +13448,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -12663,7 +13464,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -12709,7 +13510,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -12725,7 +13526,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -12739,7 +13540,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -12753,7 +13554,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -12799,7 +13600,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -12815,7 +13616,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -12830,22 +13631,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -12868,7 +13669,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -12884,7 +13685,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -12898,7 +13699,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -12912,7 +13713,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -12926,7 +13727,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -12940,7 +13741,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -12954,7 +13755,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -12968,7 +13769,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -12982,7 +13783,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -12996,7 +13797,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -13010,7 +13811,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -13024,7 +13825,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -13038,7 +13839,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -13052,7 +13853,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -13066,7 +13867,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -13080,7 +13881,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -13094,7 +13895,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -13108,7 +13909,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -13122,7 +13923,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -13197,22 +13998,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13235,7 +14036,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -13251,7 +14052,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -13265,7 +14066,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -13279,7 +14080,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -13293,7 +14094,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -13309,7 +14110,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -13323,7 +14124,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -13337,7 +14138,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -13367,7 +14168,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -13383,7 +14184,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -13397,7 +14198,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -13413,7 +14214,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -13427,7 +14228,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -13441,7 +14242,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -13455,7 +14256,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -13471,7 +14272,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -13517,7 +14318,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -13533,7 +14334,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -13547,7 +14348,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -13561,7 +14362,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -13607,7 +14408,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -13623,7 +14424,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -13638,22 +14439,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -13676,7 +14477,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -13692,7 +14493,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -13706,7 +14507,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -13720,7 +14521,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -13734,7 +14535,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -13748,7 +14549,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -13762,7 +14563,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -13776,7 +14577,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -13790,7 +14591,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -13804,7 +14605,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -13818,7 +14619,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -13832,7 +14633,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -13846,7 +14647,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -13860,7 +14661,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -13874,7 +14675,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -13888,7 +14689,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -13902,7 +14703,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -13916,7 +14717,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
         <v>103</v>
       </c>
@@ -13930,7 +14731,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -14005,22 +14806,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14043,7 +14844,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -14059,7 +14860,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -14073,7 +14874,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -14087,7 +14888,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -14101,7 +14902,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -14117,7 +14918,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -14131,7 +14932,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -14145,7 +14946,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -14175,7 +14976,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -14191,7 +14992,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -14205,7 +15006,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -14221,7 +15022,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -14235,7 +15036,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -14249,7 +15050,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -14263,7 +15064,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -14279,7 +15080,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -14325,7 +15126,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -14341,7 +15142,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -14355,7 +15156,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -14369,7 +15170,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -14415,7 +15216,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -14431,7 +15232,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -14446,22 +15247,22 @@
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -14484,7 +15285,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -14500,7 +15301,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -14514,7 +15315,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -14528,7 +15329,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -14542,7 +15343,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -14556,7 +15357,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -14570,7 +15371,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -14584,7 +15385,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -14598,7 +15399,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -14612,7 +15413,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -14626,7 +15427,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -14640,7 +15441,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -14654,7 +15455,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -14668,7 +15469,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -14682,7 +15483,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -14696,7 +15497,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -14710,7 +15511,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -14724,7 +15525,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -14738,7 +15539,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -14813,22 +15614,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14851,7 +15652,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -14867,7 +15668,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -14881,7 +15682,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -14895,7 +15696,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -14909,7 +15710,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -14925,7 +15726,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -14939,7 +15740,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -14953,7 +15754,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -14983,7 +15784,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -14999,7 +15800,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -15013,7 +15814,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -15029,7 +15830,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -15043,7 +15844,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -15057,7 +15858,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -15071,7 +15872,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -15087,7 +15888,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -15133,7 +15934,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -15149,7 +15950,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -15163,7 +15964,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -15177,7 +15978,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -15223,7 +16024,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -15239,7 +16040,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -15254,22 +16055,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -15292,7 +16093,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -15308,7 +16109,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="9" t="s">
         <v>72</v>
       </c>
@@ -15322,7 +16123,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -15336,7 +16137,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -15350,7 +16151,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -15364,7 +16165,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="9" t="s">
         <v>79</v>
       </c>
@@ -15378,7 +16179,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -15392,7 +16193,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -15406,7 +16207,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -15420,7 +16221,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="9" t="s">
         <v>87</v>
       </c>
@@ -15434,7 +16235,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -15448,7 +16249,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -15462,7 +16263,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
@@ -15476,7 +16277,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -15490,7 +16291,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -15504,7 +16305,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -15518,7 +16319,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -15532,7 +16333,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -15546,7 +16347,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
@@ -15621,22 +16422,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -15659,7 +16460,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -15675,7 +16476,7 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -15689,7 +16490,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -15703,7 +16504,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -15717,7 +16518,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -15733,7 +16534,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -15747,7 +16548,7 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -15761,7 +16562,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -15791,7 +16592,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -15807,7 +16608,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -15821,7 +16622,7 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -15837,7 +16638,7 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
@@ -15851,7 +16652,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
@@ -15865,7 +16666,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -15879,7 +16680,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -15895,7 +16696,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
@@ -15941,7 +16742,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -15957,7 +16758,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
@@ -15971,7 +16772,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
@@ -15985,7 +16786,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
@@ -16031,7 +16832,7 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -16047,7 +16848,7 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -16062,22 +16863,22 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -16100,7 +16901,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -16116,7 +16917,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>72</v>
       </c>
@@ -16130,7 +16931,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
         <v>74</v>
       </c>
@@ -16144,7 +16945,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
@@ -16158,7 +16959,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
@@ -16172,7 +16973,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>79</v>
       </c>
@@ -16186,7 +16987,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
@@ -16200,7 +17001,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
@@ -16214,7 +17015,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
@@ -16228,7 +17029,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>87</v>
       </c>
@@ -16242,7 +17043,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
@@ -16256,7 +17057,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -16270,7 +17071,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>93</v>
       </c>
@@ -16284,7 +17085,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
@@ -16298,7 +17099,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
@@ -16312,7 +17113,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
@@ -16326,7 +17127,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
@@ -16340,7 +17141,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
@@ -16354,7 +17155,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
